--- a/doc/help_dialogs/Input_files/eventannotations.xlsx
+++ b/doc/help_dialogs/Input_files/eventannotations.xlsx
@@ -4,17 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="11475" windowHeight="5955"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="11475" windowHeight="5955" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Annotations" sheetId="1" r:id="rId1"/>
+    <sheet name="Examples" sheetId="3" r:id="rId2"/>
+    <sheet name="Notes" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>EVENT ANNOTATIONS</t>
   </si>
@@ -28,18 +30,6 @@
     <t>Example</t>
   </si>
   <si>
-    <t>~E1</t>
-  </si>
-  <si>
-    <t>~E2</t>
-  </si>
-  <si>
-    <t>~E3</t>
-  </si>
-  <si>
-    <t>~E4</t>
-  </si>
-  <si>
     <t>~Y1</t>
   </si>
   <si>
@@ -100,97 +90,106 @@
     <t>'</t>
   </si>
   <si>
-    <t>The value of Event type 1</t>
-  </si>
-  <si>
-    <t>Air</t>
-  </si>
-  <si>
-    <t>The value of Event type 2</t>
-  </si>
-  <si>
-    <t>Drum</t>
-  </si>
-  <si>
-    <t>The value of Event type 3</t>
-  </si>
-  <si>
-    <t>Damper</t>
-  </si>
-  <si>
-    <t>The value of Event type 4</t>
-  </si>
-  <si>
-    <t>Burner</t>
-  </si>
-  <si>
     <t>ET value</t>
   </si>
   <si>
     <t>BT value</t>
   </si>
   <si>
-    <t>bn:Examples:</t>
-  </si>
-  <si>
-    <t>bn:'~E1/10' will divide the E1 value by 10.</t>
-  </si>
-  <si>
-    <t>bn:'~E2+5' adds 5 to the the value of E2.</t>
-  </si>
-  <si>
-    <t>bn:{~E4|20Fresh Cut Grass|50Hay|80Baking Bread|100A Point} @~Y2~degmode</t>
-  </si>
-  <si>
     <t>Development time ratio. Note: DTR=0 before FCs \n100*(t{Event}-t{FCs})/(t{FCs}-t{CHARGE})</t>
   </si>
   <si>
-    <t>bn:-Event annotations apply for 'Step', 'Step+', and 'Combo' Events settings</t>
-  </si>
-  <si>
-    <t>bn:</t>
-  </si>
-  <si>
-    <t>bn:-Anything between single quotes ' will show only before FCs. Example: '~E1 @~degmode'</t>
-  </si>
-  <si>
-    <t>bn:-Anything between back ticks ` will show only within 90 seconds before FCs. Example: '~E1 `FCs~dFCs sec`'</t>
-  </si>
-  <si>
-    <t>bn:-When combining back ticks with single or double quotes the back ticks should be inside the quotes.</t>
-  </si>
-  <si>
-    <t>bn:-Background event annotations can be seen during a roast when 'Annotations' is checked in the Profile Background window.</t>
-  </si>
-  <si>
-    <t>bn:-Simple scaling of the fields E1, E2, E3, and E4 is possible. Use a single math operator ('*', '/', '+' or '-') immediately following the field name.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bn:-Another style of annotations allows to replace an event's numeric value with a text string. One example where this can be useful is when an event is used to record sensory milestones. The value 20 might be used for 'Fresh Cut Grass' aroma, 50 for 'Hay', 80 for 'Baking Bread', and 100 to represent the 'A Point'. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">bn:This form of annotation must be enclosed in curly brackets '{}'. The first entry must be one the event fields ~E1, ~E2, ~E3, or ~E4 followed immediately by the vertical bar '|', a numeric value and the text to use for the annotation. This may be followed by additional groups of vertical bars, numeric values, and text. </t>
-  </si>
-  <si>
-    <t>bn:The following Annotation string (without the quote marks) implements this example assuming E4 is used to record the sensory milestones. Note that the BT is added to the annotation.</t>
-  </si>
-  <si>
     <t>\u00b0</t>
   </si>
   <si>
     <t>\u00b0C</t>
   </si>
   <si>
-    <t>bn:NOTES:</t>
-  </si>
-  <si>
-    <t>bn:-Anything between double quotes " will show only after FCs. Example: "~E1 @~DTR%"</t>
-  </si>
-  <si>
     <t>Number of seconds after FCs \nBest used inside double quotes (see notes below) \nDisplays '*' prior to FCs</t>
   </si>
   <si>
     <t>Number of seconds before FCs \nBest used inside single quotes or back ticks (see notes below) \nDisplays '*' after FCs</t>
+  </si>
+  <si>
+    <t>~E</t>
+  </si>
+  <si>
+    <t>The value of Event</t>
+  </si>
+  <si>
+    <t>NOTES:</t>
+  </si>
+  <si>
+    <t>EXAMPLES</t>
+  </si>
+  <si>
+    <t>Annotation Field</t>
+  </si>
+  <si>
+    <t>Displays</t>
+  </si>
+  <si>
+    <t>More than 90 seconds before FCs:\nGas 50% @340 \u00b0F\n\nLess than 90 seconds before FCs:\nGas 50% @340 \u00b0F, 50 sec before FCs \n\nAfter FCs:\nGas 50% @12% DTR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tn:Assumptions:  The event value is 50.  In the case of Gas the value 50 corresponds to either 5.0kPh or 50%.  \nFor a sensory milestone (see notes above) the value 50 corresponds to the "Hay" aroma. </t>
+  </si>
+  <si>
+    <t>Gas 5.0kPh @340F</t>
+  </si>
+  <si>
+    <t>Gas ~E/10kPh @~Y2~mode</t>
+  </si>
+  <si>
+    <t>Hay @340 \u00b0F</t>
+  </si>
+  <si>
+    <t>Before FCs:\nGas 50% @340 \u00b0F\n\nAfter FCs:\nGas 50% @12% DTR</t>
+  </si>
+  <si>
+    <t>Gas ~E% @~Y2~mode</t>
+  </si>
+  <si>
+    <t>Gas 50% @340F</t>
+  </si>
+  <si>
+    <t>Gas ~E @~Y2~degmode</t>
+  </si>
+  <si>
+    <t>Gas 50 @340\u00b0F</t>
+  </si>
+  <si>
+    <t>Gas ~E% '@~Y2 ~degmode'"@~DTR% DTR"</t>
+  </si>
+  <si>
+    <t>Gas ~E% '@~Y2 ~degmode`, ~preFCs sec before FCs`'"@~DTR% DTR"</t>
+  </si>
+  <si>
+    <t>Anything between double quotes " will show only after FCs. Example: "~E1 @~DTR%"</t>
+  </si>
+  <si>
+    <t>Anything between single quotes ' will show only before FCs. Example: '~E1 @~degmode'</t>
+  </si>
+  <si>
+    <t>When combining back ticks with single or double quotes the back ticks should be inside the quotes.</t>
+  </si>
+  <si>
+    <t>Background event annotations can be seen during a roast when 'Annotations' is checked in the Profile Background window.</t>
+  </si>
+  <si>
+    <t>Event annotations apply only for 'Step' and 'Step+' Events settings</t>
+  </si>
+  <si>
+    <t>Anything between back ticks ` will show only within 90 seconds before FCs. Example: `~E1 `FCs~dFCs sec`</t>
+  </si>
+  <si>
+    <t>Simple scaling of the event value is possible. Use a single math operator ('*', '/', '+' or '-') immediately following the field name "E". For example: \n'~E/10' will divide the E value by 10. \n'~E+5' adds 5 to the the value of E.</t>
+  </si>
+  <si>
+    <t>Another style of annotations allows to replace an event's numeric value with a text string, known as a nominal value. One example where this can be useful is when an event is used to record sensory milestones. The value 20 might be used for 'Fresh Cut Grass' aroma, 50 for 'Hay', 80 for 'Baking Bread', and 100 to represent the 'A Point'.  \n\nThis form of annotation must be enclosed in curly brackets '{}'. Entries are numeric values immediately followed by their nominal representation text.  Entries are separated by the vertical bar '|'. The following Annotation string implements this example.   \n{~E|20Fresh Cut Grass|50Hay|80Baking Bread|100A Point} \n\nNote that if the event value  does not match any value in the Annotation definition a blank string will be returned.  In the example above an event value of 30 will return a blank string.  The easiest way to ensure these values match is to use Custom Buttons to for the Event.</t>
+  </si>
+  <si>
+    <t>{20Fresh Cut Grass|50Hay|80Baking Bread|100A Point} @~Y2~degmode</t>
   </si>
 </sst>
 </file>
@@ -545,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -574,46 +573,46 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" t="s">
-        <v>29</v>
+        <v>32</v>
+      </c>
+      <c r="C3">
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" t="s">
-        <v>31</v>
+        <v>24</v>
+      </c>
+      <c r="C4">
+        <v>420</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" t="s">
-        <v>33</v>
+        <v>25</v>
+      </c>
+      <c r="C5">
+        <v>372</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" t="s">
-        <v>35</v>
+      <c r="C6">
+        <v>522</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -621,10 +620,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C7">
-        <v>420</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -632,10 +631,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C8">
-        <v>372</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -643,21 +642,21 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C9">
-        <v>522</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
         <v>12</v>
       </c>
-      <c r="B10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10">
-        <v>47</v>
+      <c r="C10" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -665,187 +664,195 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11">
-        <v>50</v>
+        <v>14</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12">
-        <v>12</v>
+        <v>17</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="3" t="s">
+      <c r="A15" s="1"/>
+      <c r="C15" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="59.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="3"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/doc/help_dialogs/Input_files/eventannotations.xlsx
+++ b/doc/help_dialogs/Input_files/eventannotations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="11475" windowHeight="5955" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="11475" windowHeight="5955"/>
   </bookViews>
   <sheets>
     <sheet name="Annotations" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t>EVENT ANNOTATIONS</t>
   </si>
@@ -190,6 +190,33 @@
   </si>
   <si>
     <t>{20Fresh Cut Grass|50Hay|80Baking Bread|100A Point} @~Y2~degmode</t>
+  </si>
+  <si>
+    <t>~descr</t>
+  </si>
+  <si>
+    <t>The Description field of the Event</t>
+  </si>
+  <si>
+    <t>Gas 10</t>
+  </si>
+  <si>
+    <t>~type</t>
+  </si>
+  <si>
+    <t>The Type field of the Event</t>
+  </si>
+  <si>
+    <t>Power</t>
+  </si>
+  <si>
+    <t>~sldrunit</t>
+  </si>
+  <si>
+    <t>The value of the Slider Unit for this Event</t>
+  </si>
+  <si>
+    <t>kPa</t>
   </si>
 </sst>
 </file>
@@ -544,10 +571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -606,106 +633,139 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6">
-        <v>522</v>
+        <v>59</v>
+      </c>
+      <c r="C6" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7">
-        <v>47</v>
+        <v>62</v>
+      </c>
+      <c r="C7" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8">
-        <v>50</v>
+        <v>65</v>
+      </c>
+      <c r="C8" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C9">
-        <v>12</v>
+        <v>522</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="C10">
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>15</v>
+        <v>30</v>
+      </c>
+      <c r="C11">
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
+      </c>
+      <c r="C12">
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B17" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="C15" s="3"/>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="C18" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -716,7 +776,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>

--- a/doc/help_dialogs/Input_files/eventannotations.xlsx
+++ b/doc/help_dialogs/Input_files/eventannotations.xlsx
@@ -573,9 +573,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/doc/help_dialogs/Input_files/eventannotations.xlsx
+++ b/doc/help_dialogs/Input_files/eventannotations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="11475" windowHeight="5955"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="11475" windowHeight="5955" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Annotations" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>EVENT ANNOTATIONS</t>
   </si>
@@ -217,6 +217,9 @@
   </si>
   <si>
     <t>kPa</t>
+  </si>
+  <si>
+    <t>When annotations overlap to the oint they can not be read, try reducing the value of the 'Allowed Annotation Overlap' found on the Annotations configuration page.  The default value for this etting is 100%.</t>
   </si>
 </sst>
 </file>
@@ -573,7 +576,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -857,10 +860,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -913,6 +916,11 @@
         <v>56</v>
       </c>
     </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/doc/help_dialogs/Input_files/eventannotations.xlsx
+++ b/doc/help_dialogs/Input_files/eventannotations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="11475" windowHeight="5955" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="11475" windowHeight="5955"/>
   </bookViews>
   <sheets>
     <sheet name="Annotations" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>EVENT ANNOTATIONS</t>
   </si>
@@ -220,6 +220,18 @@
   </si>
   <si>
     <t>When annotations overlap to the oint they can not be read, try reducing the value of the 'Allowed Annotation Overlap' found on the Annotations configuration page.  The default value for this etting is 100%.</t>
+  </si>
+  <si>
+    <t>ET RoR value</t>
+  </si>
+  <si>
+    <t>BT RoR value</t>
+  </si>
+  <si>
+    <t>~R2</t>
+  </si>
+  <si>
+    <t>~R1</t>
   </si>
 </sst>
 </file>
@@ -574,9 +586,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -606,7 +620,7 @@
       <c r="B3" t="s">
         <v>32</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>60</v>
       </c>
     </row>
@@ -617,7 +631,7 @@
       <c r="B4" t="s">
         <v>24</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <v>420</v>
       </c>
     </row>
@@ -628,7 +642,7 @@
       <c r="B5" t="s">
         <v>25</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
         <v>372</v>
       </c>
     </row>
@@ -639,7 +653,7 @@
       <c r="B6" t="s">
         <v>59</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="3" t="s">
         <v>60</v>
       </c>
     </row>
@@ -650,7 +664,7 @@
       <c r="B7" t="s">
         <v>62</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="3" t="s">
         <v>63</v>
       </c>
     </row>
@@ -661,7 +675,7 @@
       <c r="B8" t="s">
         <v>65</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="3" t="s">
         <v>66</v>
       </c>
     </row>
@@ -672,7 +686,7 @@
       <c r="B9" t="s">
         <v>7</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="3">
         <v>522</v>
       </c>
     </row>
@@ -683,7 +697,7 @@
       <c r="B10" t="s">
         <v>29</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="3">
         <v>47</v>
       </c>
     </row>
@@ -694,7 +708,7 @@
       <c r="B11" t="s">
         <v>30</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="3">
         <v>50</v>
       </c>
     </row>
@@ -705,7 +719,7 @@
       <c r="B12" t="s">
         <v>26</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="3">
         <v>12</v>
       </c>
     </row>
@@ -744,29 +758,51 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>20</v>
+        <v>68</v>
+      </c>
+      <c r="C16" s="3">
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B19" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C19" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="C18" s="3"/>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="C20" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -862,7 +898,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>

--- a/doc/help_dialogs/Input_files/eventannotations.xlsx
+++ b/doc/help_dialogs/Input_files/eventannotations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="11475" windowHeight="5955"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="11475" windowHeight="5955" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Annotations" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <si>
     <t>EVENT ANNOTATIONS</t>
   </si>
@@ -222,16 +222,54 @@
     <t>When annotations overlap to the oint they can not be read, try reducing the value of the 'Allowed Annotation Overlap' found on the Annotations configuration page.  The default value for this etting is 100%.</t>
   </si>
   <si>
-    <t>ET RoR value</t>
-  </si>
-  <si>
-    <t>BT RoR value</t>
-  </si>
-  <si>
     <t>~R2</t>
   </si>
   <si>
     <t>~R1</t>
+  </si>
+  <si>
+    <t>ET RoR value
+Displays '--' when the RoR value is not available.</t>
+  </si>
+  <si>
+    <t>BT RoR value
+Shows '--' when the RoR value Is not available.</t>
+  </si>
+  <si>
+    <t>\u00b0C/min</t>
+  </si>
+  <si>
+    <t>ET RoR with units
+Field is hidden when the RoR value is not available.</t>
+  </si>
+  <si>
+    <t>BT RoR with units
+Field is hidden when the RoR value is not available.</t>
+  </si>
+  <si>
+    <t>Gas ~E/10kPh @~Y2~mode and ~R2~degmin</t>
+  </si>
+  <si>
+    <t>~degmin</t>
+  </si>
+  <si>
+    <t>RoR units
+Shorthand for '~deg~mode/min'</t>
+  </si>
+  <si>
+    <t>~R1degmin</t>
+  </si>
+  <si>
+    <t>~R2degmin</t>
+  </si>
+  <si>
+    <t>9.9\u00b0C/min</t>
+  </si>
+  <si>
+    <t>18.2\u00b0C/min</t>
+  </si>
+  <si>
+    <t>Gas 5.0kPh @340F and 32.8\u00b0F/min</t>
   </si>
 </sst>
 </file>
@@ -280,11 +318,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -586,10 +627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -756,53 +797,86 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="3">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C16" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B17" t="s">
-        <v>69</v>
-      </c>
       <c r="C17" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B21" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B22" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C22" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="C20" s="3"/>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="C23" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -811,10 +885,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -867,25 +941,33 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>57</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>41</v>
       </c>
     </row>
